--- a/LOD/data/data_temp.xlsx
+++ b/LOD/data/data_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="731" activeTab="1"/>
+    <workbookView xWindow="4875" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="731"/>
   </bookViews>
   <sheets>
     <sheet name="europe-ceramiques" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>X</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>S4A GOL</t>
-  </si>
-  <si>
-    <t>Canton de Zürich</t>
   </si>
   <si>
     <t>Üetliberg</t>
@@ -860,8 +857,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -884,6 +879,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1162,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1172,10 +1169,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1237,7 +1234,7 @@
         <v>68</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>69</v>
@@ -1285,19 +1282,19 @@
         <v>83</v>
       </c>
       <c r="Y1" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="51" t="s">
         <v>101</v>
-      </c>
-      <c r="Z1" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC1" s="51" t="s">
-        <v>102</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
@@ -1348,22 +1345,22 @@
         <v>60</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>55</v>
@@ -1418,22 +1415,22 @@
         <v>60</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>55</v>
@@ -1478,23 +1475,23 @@
       <c r="C4" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>87</v>
+      <c r="D4" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>89</v>
-      </c>
       <c r="H4" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>85</v>
@@ -1551,15 +1548,15 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="N2:AC4">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:AB4">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>42.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1594,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1672,7 +1669,7 @@
         <v>63</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="38"/>
       <c r="O1" s="2" t="s">
@@ -1840,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>12</v>
@@ -2078,7 +2075,7 @@
     <sortCondition ref="G1"/>
   </sortState>
   <conditionalFormatting sqref="J3:BC3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LOD/data/data_temp.xlsx
+++ b/LOD/data/data_temp.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="4875" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="731"/>
   </bookViews>
   <sheets>
-    <sheet name="europe-ceramiques" sheetId="4" r:id="rId1"/>
+    <sheet name="data_temp" sheetId="4" r:id="rId1"/>
     <sheet name="import_correct" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'europe-ceramiques'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_temp!$A$1:$AB$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">import_correct!$A$2:$BC$3</definedName>
-    <definedName name="grapheAB">'europe-ceramiques'!$G$1:$H$4</definedName>
-    <definedName name="periodeAB">'europe-ceramiques'!$Y$1:$AC$4</definedName>
+    <definedName name="grapheAB">data_temp!$G$1:$H$4</definedName>
+    <definedName name="periodeAB">data_temp!$Y$1:$AC$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -229,9 +229,6 @@
     <t>Département</t>
   </si>
   <si>
-    <t>Lieu-dit</t>
-  </si>
-  <si>
     <t>Objet</t>
   </si>
   <si>
@@ -247,39 +244,6 @@
     <t>Contexte</t>
   </si>
   <si>
-    <t>Golasecca IC-IIA</t>
-  </si>
-  <si>
-    <t>Golasecca IIA-IIAB</t>
-  </si>
-  <si>
-    <t>Golasecca IIAB-IIB</t>
-  </si>
-  <si>
-    <t>Golasecca IIB</t>
-  </si>
-  <si>
-    <t>Golasecca IIIA1</t>
-  </si>
-  <si>
-    <t>Golasecca IIIA1-IIIA2</t>
-  </si>
-  <si>
-    <t>Golasecca IIIA2</t>
-  </si>
-  <si>
-    <t>Golasecca IIIA2-IIIA3</t>
-  </si>
-  <si>
-    <t>Golasecca IIIA3</t>
-  </si>
-  <si>
-    <t>Hallstatt D</t>
-  </si>
-  <si>
-    <t>La Tene A</t>
-  </si>
-  <si>
     <t>GOL</t>
   </si>
   <si>
@@ -328,19 +292,55 @@
     <t>PAR Golasecca</t>
   </si>
   <si>
-    <t xml:space="preserve">GIC_IIAB (670-530) </t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">GIIAB_IIIA1 (530-450) </t>
-  </si>
-  <si>
-    <t>GIIIA1_IIIA3 (450-420)</t>
-  </si>
-  <si>
-    <t>GIIIA3 (420-380)</t>
+    <t>Golasecca_IIB</t>
+  </si>
+  <si>
+    <t>Golasecca_IIIA1</t>
+  </si>
+  <si>
+    <t>Golasecca_IIIA2</t>
+  </si>
+  <si>
+    <t>Golasecca_IIIA3</t>
+  </si>
+  <si>
+    <t>Hallstatt_D</t>
+  </si>
+  <si>
+    <t>La_Tene_A</t>
+  </si>
+  <si>
+    <t>Lieu_dit</t>
+  </si>
+  <si>
+    <t>Golasecca_IC_IIA</t>
+  </si>
+  <si>
+    <t>Golasecca_IIA_IIAB</t>
+  </si>
+  <si>
+    <t>Golasecca_IIAB_IIB</t>
+  </si>
+  <si>
+    <t>Golasecca_IIIA1_IIIA2</t>
+  </si>
+  <si>
+    <t>Golasecca_IIIA2_IIIA3</t>
+  </si>
+  <si>
+    <t>GIIIA1_IIIA3_450_420</t>
+  </si>
+  <si>
+    <t>GIIIA3_420_380</t>
+  </si>
+  <si>
+    <t>GIC_IIAB_670_530</t>
+  </si>
+  <si>
+    <t>GIIAB_IIIA1_530_450</t>
   </si>
 </sst>
 </file>
@@ -857,6 +857,8 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -879,8 +881,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1167,12 +1167,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1189,26 +1189,25 @@
     <col min="11" max="11" width="20.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="21.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="17" customWidth="1"/>
+    <col min="15" max="16" width="21.85546875" style="17" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="17" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" style="17" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" style="17" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="17" customWidth="1"/>
     <col min="25" max="25" width="23" style="46" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="25.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="57" width="10.7109375" style="16"/>
-    <col min="58" max="16384" width="10.7109375" style="17"/>
+    <col min="29" max="29" width="14.140625" style="11" customWidth="1"/>
+    <col min="30" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="9" customFormat="1">
+    <row r="1" spans="1:29" s="9" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1228,104 +1227,76 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>73</v>
-      </c>
       <c r="O1" s="39" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V1" s="42" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="X1" s="43" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB1" s="50" t="s">
-        <v>104</v>
-      </c>
       <c r="AC1" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:29">
       <c r="A2" s="13">
         <v>8.490278</v>
       </c>
@@ -1345,22 +1316,22 @@
         <v>60</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>55</v>
@@ -1395,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:29">
       <c r="A3" s="13">
         <v>8.490278</v>
       </c>
@@ -1415,22 +1386,22 @@
         <v>60</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>55</v>
@@ -1465,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="16" customFormat="1">
+    <row r="4" spans="1:29" s="16" customFormat="1">
       <c r="A4" s="57">
         <v>8.4902800000000003</v>
       </c>
@@ -1482,25 +1453,25 @@
         <v>59</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>99</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M4" s="47" t="s">
         <v>55</v>
@@ -1548,15 +1519,15 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="N2:AC4">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:AB4">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>42.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1669,7 +1640,7 @@
         <v>63</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N1" s="38"/>
       <c r="O1" s="2" t="s">
@@ -1837,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>12</v>
@@ -2075,7 +2046,7 @@
     <sortCondition ref="G1"/>
   </sortState>
   <conditionalFormatting sqref="J3:BC3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
